--- a/backend/uploads/file_krs/krs_EE0101-19_Kalkulus I_A_Tahun_2016.xlsx
+++ b/backend/uploads/file_krs/krs_EE0101-19_Kalkulus I_A_Tahun_2016.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adip2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40F09FD-E0A8-4F21-BDD1-24070D849C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6423C39B-3403-497F-9C7F-DCB205205FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>1 </t>
   </si>
   <si>
-    <t>I0715021</t>
-  </si>
-  <si>
     <t>MOHAMMAD IZZUL MUKHTAR </t>
   </si>
   <si>
@@ -332,6 +329,9 @@
   </si>
   <si>
     <t>Muhammad Rifai </t>
+  </si>
+  <si>
+    <t>I07150211</t>
   </si>
 </sst>
 </file>
@@ -438,6 +438,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,12 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,7 +769,7 @@
   <dimension ref="A2:C42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C42"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,11 +780,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -851,333 +851,333 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="10" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="10" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="10" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="10" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="10" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="10" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="10" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="B29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="10" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="10" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="B31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="10" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="10" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="B33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="10" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="B34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="10" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="B35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="10" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="B36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="10" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="B37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="10" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="B38" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="10" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="B39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="10" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="B40" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="10" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="B41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="10" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
